--- a/data/trans_camb/IP2003-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 12,77</t>
+          <t>-5,48; 13,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 12,69</t>
+          <t>-7,33; 13,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 1,01</t>
+          <t>-17,12; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 8,01</t>
+          <t>-12,1; 8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -2,97</t>
+          <t>-22,7; -3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 5,4</t>
+          <t>-19,97; 5,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,87</t>
+          <t>-5,9; 7,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 2,41</t>
+          <t>-11,25; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,04; -0,31</t>
+          <t>-16,25; -0,74</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 113,69</t>
+          <t>-27,96; 123,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 117,91</t>
+          <t>-36,86; 123,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,6; 19,54</t>
+          <t>-86,11; 27,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 45,48</t>
+          <t>-43,53; 50,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,38; -4,78</t>
+          <t>-83,73; -15,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 59,03</t>
+          <t>-76,92; 41,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 41,31</t>
+          <t>-26,77; 47,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 15,86</t>
+          <t>-52,52; 16,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-73,25; 5,18</t>
+          <t>-74,04; -1,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,4</t>
+          <t>-4,06; 3,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,2</t>
+          <t>-5,12; 2,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,29</t>
+          <t>-3,61; 4,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,0</t>
+          <t>-7,1; 1,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -0,51</t>
+          <t>-8,8; 0,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 1,43</t>
+          <t>-9,27; 1,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 1,48</t>
+          <t>-4,09; 1,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; -0,11</t>
+          <t>-5,69; -0,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,68</t>
+          <t>-5,19; 1,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 27,96</t>
+          <t>-24,93; 24,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 17,52</t>
+          <t>-31,76; 18,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 41,72</t>
+          <t>-23,97; 40,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 6,56</t>
+          <t>-32,95; 10,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,57; -2,62</t>
+          <t>-40,75; 1,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 10,36</t>
+          <t>-42,63; 9,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 9,63</t>
+          <t>-23,13; 7,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -0,71</t>
+          <t>-31,87; -2,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 11,06</t>
+          <t>-29,15; 10,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -0,38</t>
+          <t>-10,67; 0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 4,36</t>
+          <t>-8,24; 3,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 4,27</t>
+          <t>-8,18; 4,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 10,93</t>
+          <t>-1,03; 11,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,56</t>
+          <t>-4,59; 6,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 10,49</t>
+          <t>-1,9; 10,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,99</t>
+          <t>-4,72; 4,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,24</t>
+          <t>-4,53; 3,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 6,0</t>
+          <t>-2,77; 5,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,07; 1,14</t>
+          <t>-68,84; 3,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 46,38</t>
+          <t>-52,37; 35,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 42,54</t>
+          <t>-49,41; 48,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,06; 139,26</t>
+          <t>-10,0; 155,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 93,24</t>
+          <t>-36,69; 88,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 143,57</t>
+          <t>-16,68; 148,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 41,81</t>
+          <t>-34,33; 42,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 46,98</t>
+          <t>-34,91; 40,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 62,96</t>
+          <t>-22,11; 60,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,65</t>
+          <t>-4,09; 2,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,46</t>
+          <t>-3,94; 1,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,76</t>
+          <t>-4,0; 3,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 2,82</t>
+          <t>-4,62; 2,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -0,67</t>
+          <t>-7,31; -1,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,17</t>
+          <t>-6,67; 1,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,98</t>
+          <t>-3,14; 1,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; -0,52</t>
+          <t>-4,81; -0,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,76</t>
+          <t>-4,48; 0,83</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 13,17</t>
+          <t>-25,63; 16,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 11,31</t>
+          <t>-25,88; 15,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 23,41</t>
+          <t>-26,19; 24,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 17,75</t>
+          <t>-23,65; 15,16</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,57; -3,91</t>
+          <t>-38,22; -6,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 7,9</t>
+          <t>-35,09; 10,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 6,43</t>
+          <t>-18,86; 10,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -3,53</t>
+          <t>-28,56; -2,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 5,71</t>
+          <t>-26,6; 6,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2003-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2003-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,45; 8,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,04; -4,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,56; 10,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,57; 13,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 12,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,16; 1,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 7,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,56; 2,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,54; 2,24</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,41%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,19; 45,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,26; -21,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,16; 62,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; 123,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,81; 109,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,74; 16,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,13; 49,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,92; 13,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,27; 20,38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>-4,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,49</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-2,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 13,69</t>
+          <t>-7,03; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 13,46</t>
+          <t>-9,17; -0,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 1,77</t>
+          <t>-7,84; 15,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 8,26</t>
+          <t>-3,74; 3,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -3,63</t>
+          <t>-5,58; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 5,31</t>
+          <t>-2,91; 8,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,58</t>
+          <t>-4,29; 1,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 2,52</t>
+          <t>-5,69; 0,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; -0,74</t>
+          <t>-3,87; 9,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>-14,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>-23,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-52,69%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,67%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,02%</t>
+          <t>-10,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,61%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,82%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-48,5%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 123,26</t>
+          <t>-33,66; 8,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 123,46</t>
+          <t>-41,41; -1,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,11; 27,62</t>
+          <t>-38,85; 90,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,53; 50,01</t>
+          <t>-24,18; 28,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,73; -15,9</t>
+          <t>-33,65; 16,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,92; 41,44</t>
+          <t>-19,67; 64,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 47,37</t>
+          <t>-23,3; 9,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 16,67</t>
+          <t>-31,13; 0,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,04; -1,1</t>
+          <t>-22,2; 58,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,68</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,17</t>
+          <t>-1,63; 11,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,27</t>
+          <t>-4,6; 6,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,99</t>
+          <t>-1,73; 10,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 1,73</t>
+          <t>-11,25; 0,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 0,07</t>
+          <t>-8,75; 3,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 1,36</t>
+          <t>-6,69; 6,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,1</t>
+          <t>-4,88; 3,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; -0,31</t>
+          <t>-4,73; 3,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,65</t>
+          <t>-2,76; 6,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>46,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,61%</t>
+          <t>-44,85%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,01%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,48%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,97%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,26%</t>
+          <t>14,59%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 24,15</t>
+          <t>-17,81; 138,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 18,89</t>
+          <t>-37,6; 88,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 40,39</t>
+          <t>-16,52; 138,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 10,33</t>
+          <t>-70,54; 2,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 1,93</t>
+          <t>-49,86; 40,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 9,28</t>
+          <t>-44,14; 66,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 7,27</t>
+          <t>-36,86; 42,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -2,05</t>
+          <t>-34,3; 36,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 10,93</t>
+          <t>-22,07; 66,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 0,1</t>
+          <t>-4,18; 2,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 3,61</t>
+          <t>-7,21; -0,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 4,61</t>
+          <t>-5,43; 12,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 11,17</t>
+          <t>-3,61; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,8</t>
+          <t>-3,96; 1,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 10,71</t>
+          <t>-3,53; 5,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,13</t>
+          <t>-3,13; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,84</t>
+          <t>-4,77; -0,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,94</t>
+          <t>-3,42; 5,62</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-44,85%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>-23,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>-1,69%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>-7,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>-9,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,31%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>-1,8%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-68,84; 3,82</t>
+          <t>-22,17; 15,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 35,77</t>
+          <t>-38,69; -5,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 48,94</t>
+          <t>-29,76; 83,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 155,98</t>
+          <t>-23,41; 16,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 88,71</t>
+          <t>-26,13; 13,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 148,25</t>
+          <t>-23,18; 43,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 42,91</t>
+          <t>-18,67; 8,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 40,32</t>
+          <t>-28,03; -2,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 60,52</t>
+          <t>-20,73; 35,76</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,27</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-2,62</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 2,16</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 1,96</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; 3,02</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 2,4</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; -1,02</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 1,57</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 1,48</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; -0,4</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 0,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-7,37%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-8,93%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-6,68%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-4,47%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-23,1%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-17,01%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-5,81%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-16,55%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-12,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 16,66</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-25,88; 15,51</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-26,19; 24,25</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-23,65; 15,16</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; -6,37</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-35,09; 10,9</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-18,86; 10,06</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-28,56; -2,84</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 6,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
